--- a/data pregunta 1.xlsx
+++ b/data pregunta 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriano/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F8812B-3D9F-8F47-9854-980BA98184B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEE497D-074E-FF4B-A96A-CB60FF76EB23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="434">
   <si>
     <t>Amazonas</t>
   </si>
@@ -1312,28 +1312,25 @@
     <t>Población en los hogares que tienen de 2 a más necesidades básicas insatisfechas</t>
   </si>
   <si>
-    <t>Al menos un NBI</t>
-  </si>
-  <si>
-    <t>Personas analfabetas de 15 años a más</t>
-  </si>
-  <si>
-    <t>Población sin educación secundaria de 12 a 16 años</t>
-  </si>
-  <si>
-    <t>6 a 16 años que no asiste a la escuela alalfabeta</t>
-  </si>
-  <si>
-    <t>Población de 6 a 11 años primaria analfa.</t>
-  </si>
-  <si>
-    <t>Población económicamente act 18 a más.</t>
-  </si>
-  <si>
-    <t>Personas que trabajan y estudian</t>
-  </si>
-  <si>
-    <t>Seguro de salud.</t>
+    <t>15MAS</t>
+  </si>
+  <si>
+    <t>6/16NO</t>
+  </si>
+  <si>
+    <t>EDUCA12/16</t>
+  </si>
+  <si>
+    <t>6/11SINSEC</t>
+  </si>
+  <si>
+    <t>POBECONOAC</t>
+  </si>
+  <si>
+    <t>PERSOTRABAEST</t>
+  </si>
+  <si>
+    <t>SEGURO</t>
   </si>
 </sst>
 </file>
@@ -2146,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2175,28 +2172,28 @@
         <v>414</v>
       </c>
       <c r="D1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" t="s">
         <v>427</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>429</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
